--- a/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_idpt.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5248562840743024</v>
+        <v>0.5248562840851071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4794191554616417</v>
+        <v>0.4794191554825576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7108564169759168</v>
+        <v>0.7108564169980006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4368212141085447</v>
+        <v>0.4368212139013902</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8343438252010389</v>
+        <v>0.8343438251113983</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_idpt.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5248562840851071</v>
+        <v>0.5248562840802717</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4794191554825576</v>
+        <v>0.4794191554409942</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7108564169980006</v>
+        <v>0.7108564169663991</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4368212139013902</v>
+        <v>0.4368212140334995</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8343438251113983</v>
+        <v>0.8343438251536398</v>
       </c>
     </row>
   </sheetData>

--- a/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_idpt.xlsx
+++ b/publication/analyses/outputs/rigid_transformations/icp_mean-rmse_idpt.xlsx
@@ -473,19 +473,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5248562840802717</v>
+        <v>0.5248562841031512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4794191554409942</v>
+        <v>0.4794191554360129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7108564169663991</v>
+        <v>0.7108564169799325</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4368212140334995</v>
+        <v>0.436821214158867</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8343438251536398</v>
+        <v>0.8343438252308064</v>
       </c>
     </row>
   </sheetData>
